--- a/data/hotels_by_city/Houston/Houston_shard_63.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_63.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d1657427-Reviews-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Deer-Park-TX.h3131677.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,519 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r567526299-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>1657427</t>
+  </si>
+  <si>
+    <t>567526299</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Small, but adaptable</t>
+  </si>
+  <si>
+    <t>The queen size bed in the room I was in, was small for two "good size" people. Seemed like the staff was worn out and everyone was on vacation. The location was good for freeway convenience, but horrible for local effect. Nothing to do in town, everything was 20 minutes away.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>The queen size bed in the room I was in, was small for two "good size" people. Seemed like the staff was worn out and everyone was on vacation. The location was good for freeway convenience, but horrible for local effect. Nothing to do in town, everything was 20 minutes away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r525187502-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>525187502</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Great small hotel</t>
+  </si>
+  <si>
+    <t>The people in reception were great, friendly,  and very helpful. The room was large enough and clean with a nice stocked bathroom. There was a small kitchen inclusive of a large refrigerator. One thing to note this is a self service hotel with once a week room service. What did bother me was one night the smoke detector in room 221 went off around 4am, I was in 225 (am a light sleeper) I called the front desk and they did investigate however they could not turn off the alarm until the maintenance team arrived at 7amMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>The people in reception were great, friendly,  and very helpful. The room was large enough and clean with a nice stocked bathroom. There was a small kitchen inclusive of a large refrigerator. One thing to note this is a self service hotel with once a week room service. What did bother me was one night the smoke detector in room 221 went off around 4am, I was in 225 (am a light sleeper) I called the front desk and they did investigate however they could not turn off the alarm until the maintenance team arrived at 7amMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r484930847-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>484930847</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Good location off HWY225, far enough off that there is little/no traffic noise.  Once you learn the locale, most everything is available within 5 minute or so drive.  If you must have a full service facility, hey it's a Candlewood and you should look elsewhere.  But for a couple nights, a fine place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Good location off HWY225, far enough off that there is little/no traffic noise.  Once you learn the locale, most everything is available within 5 minute or so drive.  If you must have a full service facility, hey it's a Candlewood and you should look elsewhere.  But for a couple nights, a fine place to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r397914156-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>397914156</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Will now look for every Candlewood Suites</t>
+  </si>
+  <si>
+    <t>What a wonderful experience.  We own a 5th wheel but have to stay in hotels from time to time and I would stay here any time.  I typically resist staying at hotels, but this place is wonderful. I will now search for more Candlewood Suites in our travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>What a wonderful experience.  We own a 5th wheel but have to stay in hotels from time to time and I would stay here any time.  I typically resist staying at hotels, but this place is wonderful. I will now search for more Candlewood Suites in our travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r336799749-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>336799749</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel for the price </t>
+  </si>
+  <si>
+    <t>Stayed here for an over night trip since it was close to the airport. The front receptionist were nice and friendly, hotel room was clean, and it was spacious. Would recommend of you are needing a hotel by George Bush airport. It's about a 30 min drive to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for an over night trip since it was close to the airport. The front receptionist were nice and friendly, hotel room was clean, and it was spacious. Would recommend of you are needing a hotel by George Bush airport. It's about a 30 min drive to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r320975906-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>320975906</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Needs details</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times over the last 3 years.   It is loading the details that it had. I see more stains in the carpet , patches on the walls , scratches , and the odor appears to be more oily in nature.    This is a great location and nice hotel.   Just needs some attention to maintenance and details MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times over the last 3 years.   It is loading the details that it had. I see more stains in the carpet , patches on the walls , scratches , and the odor appears to be more oily in nature.    This is a great location and nice hotel.   Just needs some attention to maintenance and details More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r317215790-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>317215790</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Stay here a good bit for work. From my experience the rooms have always been clean, the staff is always friendly. I know there are people who say this place dumpy, but I don't find it so. The rooms are a bit small, but that's not a big deal. The hotel has more than ample parking, it is located in an industrial zone. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Stay here a good bit for work. From my experience the rooms have always been clean, the staff is always friendly. I know there are people who say this place dumpy, but I don't find it so. The rooms are a bit small, but that's not a big deal. The hotel has more than ample parking, it is located in an industrial zone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r234172816-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>234172816</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Customer Courtesy</t>
+  </si>
+  <si>
+    <t>Great experience with this hotel.  Syed was extremely helpful and accommodating! Would recommend staying here and am grateful for the courtesy shown to me as a customer. Will surely stay here in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Great experience with this hotel.  Syed was extremely helpful and accommodating! Would recommend staying here and am grateful for the courtesy shown to me as a customer. Will surely stay here in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r229515699-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>229515699</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>I stayed here while looking for an apartment for a few weeks with 2 cats--very nice stay!   Clean room, great staff, and quiet.  I would stay again here!   Comfortable bed and TV had a lot of choices!  Easy to get to from highway and near restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded September 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here while looking for an apartment for a few weeks with 2 cats--very nice stay!   Clean room, great staff, and quiet.  I would stay again here!   Comfortable bed and TV had a lot of choices!  Easy to get to from highway and near restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r195570810-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>195570810</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I received excellent customer service following a recent visit.  I traveled for business and neglected to provide my Government tax exempt form upon check-in.  I was able to contact someone at the hotel and get this straightened out after returning from my trip. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded March 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2014</t>
+  </si>
+  <si>
+    <t>I received excellent customer service following a recent visit.  I traveled for business and neglected to provide my Government tax exempt form upon check-in.  I was able to contact someone at the hotel and get this straightened out after returning from my trip. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r193700588-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>193700588</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Candlewood Suites, home away from home and peaceful</t>
+  </si>
+  <si>
+    <t>I have stayed extensively at Candlewood Suites in Deer Park Texas.  I have also traveled to and from Texas to Idaho often.  I have just been back at Candlewood Suites recently and have found them to have changed the bedding to a white linen, sheets and a new coverlet at the end of the bed. It is quite nice and clean looking and homey to me.  The place is quiet, the staff are courteous, I am comfortable, and the area is clean.  I like it here.  Compared to other places, I get a good night's sleep here, the noise is very minimal, I have a pet and they accommodate her needs nicely with a pet walk out back. Any problems that might arise they take care of as quickly as they can.  I give them a high rating in my book. There is a seafood restaurant right across the street from the hotel if you need a meal before bedtime when traveling, which I appreciate greatly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded February 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed extensively at Candlewood Suites in Deer Park Texas.  I have also traveled to and from Texas to Idaho often.  I have just been back at Candlewood Suites recently and have found them to have changed the bedding to a white linen, sheets and a new coverlet at the end of the bed. It is quite nice and clean looking and homey to me.  The place is quiet, the staff are courteous, I am comfortable, and the area is clean.  I like it here.  Compared to other places, I get a good night's sleep here, the noise is very minimal, I have a pet and they accommodate her needs nicely with a pet walk out back. Any problems that might arise they take care of as quickly as they can.  I give them a high rating in my book. There is a seafood restaurant right across the street from the hotel if you need a meal before bedtime when traveling, which I appreciate greatly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r192906352-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>192906352</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>My husband is here for business and me and my daughter is with him. The people here are very friendly, they are pet friendly also. They have on site laundry room and a fitness center. They have a pool and more. The only complaint is I wished the dryers would have worked a bit better. Over all its the nicest place to stay and very friendly staff. .MoreShow less</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2014</t>
+  </si>
+  <si>
+    <t>My husband is here for business and me and my daughter is with him. The people here are very friendly, they are pet friendly also. They have on site laundry room and a fitness center. They have a pool and more. The only complaint is I wished the dryers would have worked a bit better. Over all its the nicest place to stay and very friendly staff. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r179383972-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>179383972</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>A Gaddy</t>
+  </si>
+  <si>
+    <t>I have been staying at the Candlewood Suites Deer Park for the last 3+ yrs. The staff here is without a doubt some of the best that I have had the opportunity to meet. I travel 48 out of 52 weeks a yr, stay at quite a few different hotels depending on the city I visit. The rooms are always clean, neat and if you need anything they are there to help. I would highly recommend this hotel to business travelers or for extended stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2013</t>
+  </si>
+  <si>
+    <t>I have been staying at the Candlewood Suites Deer Park for the last 3+ yrs. The staff here is without a doubt some of the best that I have had the opportunity to meet. I travel 48 out of 52 weeks a yr, stay at quite a few different hotels depending on the city I visit. The rooms are always clean, neat and if you need anything they are there to help. I would highly recommend this hotel to business travelers or for extended stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r176663070-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>176663070</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Travel To Deer Park Texas At Least Monthly</t>
+  </si>
+  <si>
+    <t>I have found the Candlewood Deer Park to be an excellent hotel to stay at for my business trips.  Each time I have stayed, at least 12 times a year for the past 3 years, the staff has been friendly and courteous.  During each stay my hotel room has been clean even when I have had to check in earlier than usual.  The Candlewood Cupboard, is pleasantly stocked with various beverages, ice cream treats, microwaveable dinners, stovetop items, and toiletries.  I would recommend this hotel to any of my family, friends, or coworkers that would travel to this area.I rated Location as a 4 because it is close to my business trip activities, but only has one restaurant within walking distance.  Other restaurants are within 5 to 10 minutes by car.I rated restaurant as a 3 because the restaurant across the street, in my opinion, is adequate.  The food is mostly fried and not very flavorful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>I have found the Candlewood Deer Park to be an excellent hotel to stay at for my business trips.  Each time I have stayed, at least 12 times a year for the past 3 years, the staff has been friendly and courteous.  During each stay my hotel room has been clean even when I have had to check in earlier than usual.  The Candlewood Cupboard, is pleasantly stocked with various beverages, ice cream treats, microwaveable dinners, stovetop items, and toiletries.  I would recommend this hotel to any of my family, friends, or coworkers that would travel to this area.I rated Location as a 4 because it is close to my business trip activities, but only has one restaurant within walking distance.  Other restaurants are within 5 to 10 minutes by car.I rated restaurant as a 3 because the restaurant across the street, in my opinion, is adequate.  The food is mostly fried and not very flavorful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r172225295-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>172225295</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Sue M.</t>
+  </si>
+  <si>
+    <t>I stayed at Candlewood Suites Deer Park for 4 days. It was a wonderful stay. I will be staying at the Deer Park location the next time I am in town. The staff was very nice and helpful.We enjoyed the time at the pool... Esp enjoyed the grill and gazebo area.. Like the fact the rooms are equipped with full size ref and stove... plus plus is the laundry service ... I would recommend  this hotel to all my co-workers, friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at Candlewood Suites Deer Park for 4 days. It was a wonderful stay. I will be staying at the Deer Park location the next time I am in town. The staff was very nice and helpful.We enjoyed the time at the pool... Esp enjoyed the grill and gazebo area.. Like the fact the rooms are equipped with full size ref and stove... plus plus is the laundry service ... I would recommend  this hotel to all my co-workers, friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r168332285-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>168332285</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>No Surprises - Good or Bad</t>
+  </si>
+  <si>
+    <t>I spent four nights at this Candlewood Suites.  The place met all my expectations but was not remarkable in any area.  The rooms were clean and spacious; the kitchen was well equipped, but that what was expected.  Its primary clientele appears to be work crews that probably have week long (or longer) assignemnets in the area.  This place would be ideal for such a stay.  The place was very quiet which was somewhat of a surprise considering these work crews work long hours that don't necessarily fit the 9-5 model.MoreShow less</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>I spent four nights at this Candlewood Suites.  The place met all my expectations but was not remarkable in any area.  The rooms were clean and spacious; the kitchen was well equipped, but that what was expected.  Its primary clientele appears to be work crews that probably have week long (or longer) assignemnets in the area.  This place would be ideal for such a stay.  The place was very quiet which was somewhat of a surprise considering these work crews work long hours that don't necessarily fit the 9-5 model.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r168330145-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>168330145</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay BUT...</t>
+  </si>
+  <si>
+    <t>We arrived late one evening and had no issues getting checked in and the rooms were great, comfortable beds, clean and spacious, the only thing that was they only clean the rooms once a week and you have go to the front desk for clean towels or toilet tissue.  The second day I went down to get some towels and the blonde working the front desk made me feel like I was being scolded for not bringing my other towels down with me.  This lady was very rude the couple of times I had to interact with her and put me off on this hotel all together.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We arrived late one evening and had no issues getting checked in and the rooms were great, comfortable beds, clean and spacious, the only thing that was they only clean the rooms once a week and you have go to the front desk for clean towels or toilet tissue.  The second day I went down to get some towels and the blonde working the front desk made me feel like I was being scolded for not bringing my other towels down with me.  This lady was very rude the couple of times I had to interact with her and put me off on this hotel all together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r144267639-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>144267639</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>My honest experience</t>
+  </si>
+  <si>
+    <t>I was in town for a business meeting and our meetings were at the Candlewood Suites. My wife and baby came with. We checked in and went to our room. Unfortunately, it was not very welcoming. We were welcomed by a very large cobweb in the corner above the refrigerator, my wife immediately was skeptical of the cleanliness of this room. She went to check the beds and found that the linens were very yellow almost stained. She opened one and found hair in the bed and on the pillows, then she opened the other bed and (this is no word of a lie) a big bug of some sort ran across the bed. We also found a hair tie on the floor by the bed. Then we went into the bathroom and there was shower gel on the bottom of the tub and other stains, you could clearly tell it wasn't cleaned. We went to the front desk to ask for a different room and we were told there were no other rooms so we had to stay in there and as for getting the linens changed, we were given sheets and asked to change the sheets ourselves. Needless to say, it wasn't a very comfortable night sleep and the next night we stayed at the Hampton Inn. This was my honest and true experience here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I was in town for a business meeting and our meetings were at the Candlewood Suites. My wife and baby came with. We checked in and went to our room. Unfortunately, it was not very welcoming. We were welcomed by a very large cobweb in the corner above the refrigerator, my wife immediately was skeptical of the cleanliness of this room. She went to check the beds and found that the linens were very yellow almost stained. She opened one and found hair in the bed and on the pillows, then she opened the other bed and (this is no word of a lie) a big bug of some sort ran across the bed. We also found a hair tie on the floor by the bed. Then we went into the bathroom and there was shower gel on the bottom of the tub and other stains, you could clearly tell it wasn't cleaned. We went to the front desk to ask for a different room and we were told there were no other rooms so we had to stay in there and as for getting the linens changed, we were given sheets and asked to change the sheets ourselves. Needless to say, it wasn't a very comfortable night sleep and the next night we stayed at the Hampton Inn. This was my honest and true experience here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r122066213-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>122066213</t>
+  </si>
+  <si>
+    <t>12/24/2011</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Nice clean newer extended stay Big gym.  Onside laundryLarge rooms with everything you need A little pricey</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r92845328-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>92845328</t>
+  </si>
+  <si>
+    <t>01/13/2011</t>
+  </si>
+  <si>
+    <t>Brand new</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites Deer Park is brand new. This means that everything is clean and functions well. Rooms are large as usual, a full kitchen is provided with no kitchenware missing, business center is operational, Wifi is provided and all other facilities are OK. Staff is a bit unexperienced but attentive and willing to do its best to assist visitors. The location of the hotel is good if you enjoy deep sleep. Indeed, in spite of what the name "Deer Park" could imply, the area is fairly noisy: the 225 highway with dense traffic is nearby and heavily loaded trains whistle at length and often even at night. Further, our room was equipped with the traditionally large but boisterous fridge/deep freezer and air conditioner, making us - Europeans - wondering again why Americans, even in a brand new hotel, so much prefer rattling and vibrating appliances (ours are quiet or even silent) especially when they sit close to your bed... In summary, we enjoyed our stay but did not sleep well.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites Deer Park is brand new. This means that everything is clean and functions well. Rooms are large as usual, a full kitchen is provided with no kitchenware missing, business center is operational, Wifi is provided and all other facilities are OK. Staff is a bit unexperienced but attentive and willing to do its best to assist visitors. The location of the hotel is good if you enjoy deep sleep. Indeed, in spite of what the name "Deer Park" could imply, the area is fairly noisy: the 225 highway with dense traffic is nearby and heavily loaded trains whistle at length and often even at night. Further, our room was equipped with the traditionally large but boisterous fridge/deep freezer and air conditioner, making us - Europeans - wondering again why Americans, even in a brand new hotel, so much prefer rattling and vibrating appliances (ours are quiet or even silent) especially when they sit close to your bed... In summary, we enjoyed our stay but did not sleep well.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1051,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1083,1395 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_63.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_63.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r577944512-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>1657427</t>
+  </si>
+  <si>
+    <t>577944512</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Great to work with</t>
+  </si>
+  <si>
+    <t>My company hosted a job fair at this location in late April early May. No one expected as many people to show up as did. My company had to extend the job fair three additional times on three consecutive days to review all the people that came in.For days the front desk staff was accommodating to both our perspective employees and our company staff. They went above and beyond to assist with all the requests, 7am to 7pm each day. I can not say enough good about how well they handled the overwhelming turnout. Thank you Candlewood, thank you Deerpark front desk staff.YOU ARE AWESOME!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>My company hosted a job fair at this location in late April early May. No one expected as many people to show up as did. My company had to extend the job fair three additional times on three consecutive days to review all the people that came in.For days the front desk staff was accommodating to both our perspective employees and our company staff. They went above and beyond to assist with all the requests, 7am to 7pm each day. I can not say enough good about how well they handled the overwhelming turnout. Thank you Candlewood, thank you Deerpark front desk staff.YOU ARE AWESOME!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r576097263-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>576097263</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Convenient if working with any of the chemical sites</t>
+  </si>
+  <si>
+    <t>The hotel is clean and what you would expect of any candlewood. There is one restaurant just across the road but the main use of this is its proximity to the chemical sites in Deer Park. It's just off the 225.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is clean and what you would expect of any candlewood. There is one restaurant just across the road but the main use of this is its proximity to the chemical sites in Deer Park. It's just off the 225.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r567526299-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
-    <t>55726</t>
-  </si>
-  <si>
-    <t>1657427</t>
-  </si>
-  <si>
     <t>567526299</t>
   </si>
   <si>
@@ -204,9 +261,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded September 21, 2017</t>
   </si>
   <si>
@@ -243,6 +297,60 @@
     <t>Good location off HWY225, far enough off that there is little/no traffic noise.  Once you learn the locale, most everything is available within 5 minute or so drive.  If you must have a full service facility, hey it's a Candlewood and you should look elsewhere.  But for a couple nights, a fine place to sleep.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r460535152-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>460535152</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Just another business trip</t>
+  </si>
+  <si>
+    <t>OK, I really don't know where to start. The people in reception were great, friendly, helpful, just great! The room was a nice size clean with a nice stocked bathroom. There was a small kitchen, with everything you may need, and if you need more, you an get it downstairs. On the downside, I was not aware that this was a self service hotel, but, breakfast is not far away. What did bother me was the non-existence of daily room service. Apparently that only happens once a week. Not what I expected. If it wasn't for that, I'd use the hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>OK, I really don't know where to start. The people in reception were great, friendly, helpful, just great! The room was a nice size clean with a nice stocked bathroom. There was a small kitchen, with everything you may need, and if you need more, you an get it downstairs. On the downside, I was not aware that this was a self service hotel, but, breakfast is not far away. What did bother me was the non-existence of daily room service. Apparently that only happens once a week. Not what I expected. If it wasn't for that, I'd use the hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r400171560-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>400171560</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>Stayed 3 nights on our mammoth trip around the States .we are travelling from Australia and rely on reviews for choosing our stays..Staff friendly and helpful. .rooms clean and comfortable. ..onsite laundry facilities. .sundries shop. .exercise room and pool ...will recommend this hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights on our mammoth trip around the States .we are travelling from Australia and rely on reviews for choosing our stays..Staff friendly and helpful. .rooms clean and comfortable. ..onsite laundry facilities. .sundries shop. .exercise room and pool ...will recommend this hotel More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r397914156-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -327,6 +435,45 @@
     <t>I have stayed at this hotel many times over the last 3 years.   It is loading the details that it had. I see more stains in the carpet , patches on the walls , scratches , and the odor appears to be more oily in nature.    This is a great location and nice hotel.   Just needs some attention to maintenance and details More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r320728015-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>320728015</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>GREAT ROOMS</t>
+  </si>
+  <si>
+    <t>Nice staff great rooms... was able to keep my dog at the hotel for the week which was great. Thanks for hosting us for a week and letting our group use the conference room to plan our project. Will returnMoreShow less</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Nice staff great rooms... was able to keep my dog at the hotel for the week which was great. Thanks for hosting us for a week and letting our group use the conference room to plan our project. Will returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r320645756-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>320645756</t>
+  </si>
+  <si>
+    <t>Stay at Candlewood (DeerPark)</t>
+  </si>
+  <si>
+    <t>The stay at Candlewood Suites DeerPark was great. The staff was friendly and respectful especially Matthew at the front desk. I left a couple items at home and they were able to provide me with the items I needed and they directed me to the nearest store the items they didn't have. The rooms were nice and I give Candlewood Suites at DeerPark 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay at Candlewood Suites DeerPark was great. The staff was friendly and respectful especially Matthew at the front desk. I left a couple items at home and they were able to provide me with the items I needed and they directed me to the nearest store the items they didn't have. The rooms were nice and I give Candlewood Suites at DeerPark 5 stars.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r317215790-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -408,6 +555,54 @@
     <t>I stayed here while looking for an apartment for a few weeks with 2 cats--very nice stay!   Clean room, great staff, and quiet.  I would stay again here!   Comfortable bed and TV had a lot of choices!  Easy to get to from highway and near restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r228329674-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>228329674</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>I want to thank the staff/ and christi for all your help, just sure you all deserve a rise for all your hard work : - ) this hotel has all what one would need... Dont forget to BBQ out on back patio... while you swim... :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>I want to thank the staff/ and christi for all your help, just sure you all deserve a rise for all your hard work : - ) this hotel has all what one would need... Dont forget to BBQ out on back patio... while you swim... :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r213897231-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>213897231</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice facilities </t>
+  </si>
+  <si>
+    <t>Nice facilities and very quiet! Right off the freeway and down the road from the Battleship of Texas. Clean and comfortable rooms! Very spacy perfect for people who are going to be staying long term. No breakfast but we did not need that service. Staff was friendly! MoreShow less</t>
+  </si>
+  <si>
+    <t>Laura B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Nice facilities and very quiet! Right off the freeway and down the road from the Battleship of Texas. Clean and comfortable rooms! Very spacy perfect for people who are going to be staying long term. No breakfast but we did not need that service. Staff was friendly! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r195570810-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -483,6 +678,57 @@
     <t>My husband is here for business and me and my daughter is with him. The people here are very friendly, they are pet friendly also. They have on site laundry room and a fitness center. They have a pool and more. The only complaint is I wished the dryers would have worked a bit better. Over all its the nicest place to stay and very friendly staff. .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r184589861-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>184589861</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Great people</t>
+  </si>
+  <si>
+    <t>The night hostess was great and very helpful. Rooms were great. Only downside was no breakfast and you have to go to deer park or Pasadena to eat in the morning. The fish place across the street was decent. Really happy with this visit was here for a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2013</t>
+  </si>
+  <si>
+    <t>The night hostess was great and very helpful. Rooms were great. Only downside was no breakfast and you have to go to deer park or Pasadena to eat in the morning. The fish place across the street was decent. Really happy with this visit was here for a week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r180090576-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>180090576</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>My stay at Candlewood Deer Park, Texas</t>
+  </si>
+  <si>
+    <t>I have been staying at Candlewood Deer Park for a couple of years now. My husband travels at least 40 weeks a year and when his job is in Houston, I always travel with him. I love this hotel and everyone that works for Candlewood! I have made some lasting relationships with the staff members. They truly care for their customers and make sure your stay is wonderful. The rooms are awesome and very clean and fresh when you arrive. My grown children always travel to Deer Park when we are here so they can stay in the hotel. They love when Dad works Deer Park. I would highly recommend Candlewood Deer Park to everyone!! I will never stay anywhere but here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>I have been staying at Candlewood Deer Park for a couple of years now. My husband travels at least 40 weeks a year and when his job is in Houston, I always travel with him. I love this hotel and everyone that works for Candlewood! I have made some lasting relationships with the staff members. They truly care for their customers and make sure your stay is wonderful. The rooms are awesome and very clean and fresh when you arrive. My grown children always travel to Deer Park when we are here so they can stay in the hotel. They love when Dad works Deer Park. I would highly recommend Candlewood Deer Park to everyone!! I will never stay anywhere but here!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r179383972-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -498,9 +744,6 @@
     <t>I have been staying at the Candlewood Suites Deer Park for the last 3+ yrs. The staff here is without a doubt some of the best that I have had the opportunity to meet. I travel 48 out of 52 weeks a yr, stay at quite a few different hotels depending on the city I visit. The rooms are always clean, neat and if you need anything they are there to help. I would highly recommend this hotel to business travelers or for extended stays.MoreShow less</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
     <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded October 4, 2013</t>
   </si>
   <si>
@@ -561,6 +804,57 @@
     <t>I stayed at Candlewood Suites Deer Park for 4 days. It was a wonderful stay. I will be staying at the Deer Park location the next time I am in town. The staff was very nice and helpful.We enjoyed the time at the pool... Esp enjoyed the grill and gazebo area.. Like the fact the rooms are equipped with full size ref and stove... plus plus is the laundry service ... I would recommend  this hotel to all my co-workers, friends and family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r171484415-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>171484415</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Judy D</t>
+  </si>
+  <si>
+    <t>I have had the pleasure of staying at this hotel for a very extended period of time.  Like all hotels they have their boundaries that they cannot cross such as rates or bookings though we have a great deal with them worked out before we checked in.  Through my extended stay we have worked out any and all problems in a timely manner and the staff has been very considerate of me and my husband.  We had an act of God once, lightening struck the building, and management and staff worked around the clock to restore most of the electrical systems, TVs, internet.  They did not complain once but worked on the problem diligently and as fast as humanly possible they fixed the problems.  They do what they can like offer info to restaurants, driving directions, and hotel accommodations.  I find the staff especially friendly.  I also have a pet and they have been more than generous in accommodating my pet.  We have actually been here more than a month which this system does not allow.  We have been here over a year now off and on.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>I have had the pleasure of staying at this hotel for a very extended period of time.  Like all hotels they have their boundaries that they cannot cross such as rates or bookings though we have a great deal with them worked out before we checked in.  Through my extended stay we have worked out any and all problems in a timely manner and the staff has been very considerate of me and my husband.  We had an act of God once, lightening struck the building, and management and staff worked around the clock to restore most of the electrical systems, TVs, internet.  They did not complain once but worked on the problem diligently and as fast as humanly possible they fixed the problems.  They do what they can like offer info to restaurants, driving directions, and hotel accommodations.  I find the staff especially friendly.  I also have a pet and they have been more than generous in accommodating my pet.  We have actually been here more than a month which this system does not allow.  We have been here over a year now off and on.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r170944980-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>170944980</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Get the business at any cost is their policy!</t>
+  </si>
+  <si>
+    <t>My plans were changed within minutes of my booking and the date for my stay was a week out.  I called and spoke to the manager and he would not work with me in anyway to cancel the reservation. I realize it was a non refundable situation, but within less then an hour they couldn't make an exception and that is beyond me. Working for a company that will do what ever we can to assist our customers I feel rigid policies like this hurt business and does nothing to help it. With many options I will either stay here or let is hit my card, but I will never recommend them or stay with any business that is connected with group of motels.  I have not stayed here yet, but nothing about the stay will change my mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>My plans were changed within minutes of my booking and the date for my stay was a week out.  I called and spoke to the manager and he would not work with me in anyway to cancel the reservation. I realize it was a non refundable situation, but within less then an hour they couldn't make an exception and that is beyond me. Working for a company that will do what ever we can to assist our customers I feel rigid policies like this hurt business and does nothing to help it. With many options I will either stay here or let is hit my card, but I will never recommend them or stay with any business that is connected with group of motels.  I have not stayed here yet, but nothing about the stay will change my mind.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r168332285-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -622,6 +916,48 @@
   </si>
   <si>
     <t>I was in town for a business meeting and our meetings were at the Candlewood Suites. My wife and baby came with. We checked in and went to our room. Unfortunately, it was not very welcoming. We were welcomed by a very large cobweb in the corner above the refrigerator, my wife immediately was skeptical of the cleanliness of this room. She went to check the beds and found that the linens were very yellow almost stained. She opened one and found hair in the bed and on the pillows, then she opened the other bed and (this is no word of a lie) a big bug of some sort ran across the bed. We also found a hair tie on the floor by the bed. Then we went into the bathroom and there was shower gel on the bottom of the tub and other stains, you could clearly tell it wasn't cleaned. We went to the front desk to ask for a different room and we were told there were no other rooms so we had to stay in there and as for getting the linens changed, we were given sheets and asked to change the sheets ourselves. Needless to say, it wasn't a very comfortable night sleep and the next night we stayed at the Hampton Inn. This was my honest and true experience here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r141369023-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>141369023</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Awesome!!!!!</t>
+  </si>
+  <si>
+    <t>If you want to feel at home away from home then there's not any better place to stay than Candlewood Suites 1300 East Blvd. Deer Park,Texas. Friendly curtious helpful kind hearted owner and staff. The best this side of town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r129830932-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>129830932</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>comfortable extended stay</t>
+  </si>
+  <si>
+    <t>Very clean, nice hotel to stay.  Good exercise room, but it is kept a little too warm, free laundry for guests.  I especially love the full size fridge &amp; a small cooktop so my eating habits here are much better than in hotels with just a microwave.  I was also pleased that their dishes, &amp; cooking pans &amp; pots were not just thrift store junk, but nice ones.  The bed is very comfortable.  It is quiet almost all the time except on some weekend afternoons when people gather in the courtyard to BBQ, drink, &amp; party.   I am staying here for over a month.  The front desk staff has also been helpful although there is a lanuage barrier with the housekeeping staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Belinda B, Director of Sales at Candlewood Suites Deer Park, responded to this reviewResponded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Very clean, nice hotel to stay.  Good exercise room, but it is kept a little too warm, free laundry for guests.  I especially love the full size fridge &amp; a small cooktop so my eating habits here are much better than in hotels with just a microwave.  I was also pleased that their dishes, &amp; cooking pans &amp; pots were not just thrift store junk, but nice ones.  The bed is very comfortable.  It is quiet almost all the time except on some weekend afternoons when people gather in the courtyard to BBQ, drink, &amp; party.   I am staying here for over a month.  The front desk staff has also been helpful although there is a lanuage barrier with the housekeeping staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1657427-r122066213-Candlewood_Suites_Deer_Park-Deer_Park_Texas.html</t>
@@ -1192,7 +1528,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1200,18 +1536,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1265,25 +1595,31 @@
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1299,7 +1635,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1308,35 +1644,37 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1385,35 +1723,31 @@
         <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1429,7 +1763,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1438,43 +1772,47 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1490,7 +1828,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1499,43 +1837,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
         <v>100</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1551,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1560,25 +1904,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1590,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
         <v>109</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>110</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1621,32 +1965,32 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
         <v>113</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>116</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>117</v>
       </c>
-      <c r="O9" t="s">
-        <v>62</v>
-      </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1698,24 +2042,20 @@
         <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1763,30 +2103,20 @@
         <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1840,20 +2170,14 @@
         <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -1896,13 +2220,13 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
         <v>149</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>150</v>
-      </c>
-      <c r="L13" t="s">
-        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -1911,25 +2235,31 @@
         <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -1945,7 +2275,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1954,53 +2284,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
         <v>156</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
         <v>157</v>
       </c>
-      <c r="K14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>160</v>
-      </c>
-      <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2016,7 +2336,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2025,38 +2345,32 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
         <v>165</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>166</v>
       </c>
-      <c r="K15" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>160</v>
-      </c>
       <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2065,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
         <v>169</v>
-      </c>
-      <c r="X15" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -2087,7 +2401,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2096,53 +2410,47 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
         <v>173</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>174</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>175</v>
       </c>
-      <c r="L16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>177</v>
-      </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
         <v>178</v>
-      </c>
-      <c r="X16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -2158,7 +2466,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2167,53 +2475,47 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
         <v>182</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>183</v>
       </c>
-      <c r="K17" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" t="s">
-        <v>185</v>
-      </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
         <v>186</v>
-      </c>
-      <c r="X17" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -2229,7 +2531,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2238,50 +2540,36 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
         <v>190</v>
       </c>
-      <c r="J18" t="s">
-        <v>183</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>191</v>
       </c>
-      <c r="L18" t="s">
-        <v>192</v>
-      </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>193</v>
-      </c>
-      <c r="O18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
         <v>194</v>
@@ -2321,27 +2609,41 @@
         <v>199</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -2357,7 +2659,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2366,24 +2668,28 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
@@ -2401,10 +2707,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -2420,7 +2730,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2429,49 +2739,995 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
       </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>291</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s">
+        <v>297</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>298</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59919</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
